--- a/Runnable/basic/note/note.xlsx
+++ b/Runnable/basic/note/note.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
+    <sheet name="jstack" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>原子性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,6 +31,66 @@
   </si>
   <si>
     <t>存储在计算机中的是数字的补码形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MehtodName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Important</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notiftyAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当一个对象上调wait方法后，当前线程会在这个对象上等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤醒等待队列的所有线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被调用时，会在等待队列随机挑一个线程，并将其唤醒。这个选择是不公平的，随机的。调用之前必须获取对象的监视器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入等待队列（有可能有多个线程）。wait不是随便调用的，它必须包含在对应的synchronized语句块中。在调用之前，首先获得一个监视器。当线程被唤起之后，首先重新获取对象的监视器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂起线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续执行线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会释放资源，被挂起时，状态仍然是Runnable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,6 +151,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{779E38D0-F1CF-4EAD-BA6D-5F75544CAB08}" name="表1" displayName="表1" ref="C5:E15" totalsRowShown="0">
+  <autoFilter ref="C5:E15" xr:uid="{9231D541-E224-4A27-91AB-4063C513DB2B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FBB5B049-A0C0-45E4-9543-D5DD8315C6E9}" name="MehtodName"/>
+    <tableColumn id="2" xr3:uid="{91BB24C7-C731-43A7-BA9F-48788503218F}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{724F1EE5-543C-4BF6-BB61-AD9AA8C85290}" name="Important"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,32 +428,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="5" width="34.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1DB180-CF60-45B8-8615-04AE32C39729}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Runnable/basic/note/note.xlsx
+++ b/Runnable/basic/note/note.xlsx
@@ -11,6 +11,7 @@
     <sheet name="jstack" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>原子性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +92,150 @@
   </si>
   <si>
     <t>不会释放资源，被挂起时，状态仍然是Runnable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停当前正在执行的线程对象，并执行其他线程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staitic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread.yield();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在指定的毫秒数内让当前正在执行的线程休眠（暂停执行），此操作受到系统计时器和调度程序精度和准确性的影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread.sleep(100);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可见性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deprecated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop方法太过暴力，可能引起数据不一致问题。直接终止线程，立即释放该线程持有的所有锁，而这些锁是用来维持数据一致性的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread.interrupted();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread.interrupt();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它通知线程目标终端，也就是设置终端标志。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>istnterrupted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread.isinterrupted();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interrupted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断线程释放被中断，并清空中断标志。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断线程是否被中断。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阻塞当前线程，之到目标线程执行完毕。等待该线程终止。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事当前的线程让出cpu,让出cpu并不表示当前线程不知晓了，它还会进行cpu资源争夺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64位因为只支持server模式，如果我们修改了配置，启动JVM时会报错，无法启动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果要切换启动模式，首先要确认JDK支持哪一种或两种模式。查看JAVA_HOME/jre/bin目录下是否存在client或server目录。32位的JDK一般都支持server和client两种模式。64位的虚拟机好像只支持server模式，没有client目录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在64位JDK中，jvm.cfg位置为：JAVA_HOME/jre/lib/amd64/jvm.cfg。 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在32位JDK中，jvm.cfg位置为：JAVA_HOME/jre/lib/i386/jvm.cfg； 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JVM Process Status Tool,显示指定系统内所有的HotSpot虚拟机进程。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">jstat(JVM statistics Monitoring)是用于监视虚拟机运行时状态信息的命令，它可以显示出虚拟机进程中的类装载、内存、垃圾收集、JIT编译等运行数据。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmap(JVM Memory Map)命令用于生成heap dump文件，如果不使用这个命令，还阔以使用-XX:+HeapDumpOnOutOfMemoryError参数来让虚拟机出现OOM的时候·自动生成dump文件。
+jmap不仅能生成dump文件，还阔以查询finalize执行队列、Java堆和永久代的详细信息，如当前使用率、当前使用的是哪种收集器等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">jhat(JVM Heap Analysis Tool)命令是与jmap搭配使用，用来分析jmap生成的dump，jhat内置了一个微型的HTTP/HTML服务器，生成dump的分析结果后，可以在浏览器中查看。在此要注意，一般不会直接在服务器上进行分析，因为jhat是一个耗时并且耗费硬件资源的过程，一般把服务器生成的dump文件复制到本地或其他机器上进行分析。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">jstack用于生成java虚拟机当前时刻的线程快照。线程快照是当前java虚拟机内每一条线程正在执行的方法堆栈的集合，生成线程快照的主要目的是定位线程出现长时间停顿的原因，如线程间死锁、死循环、请求外部资源导致的长时间等待等。 线程出现停顿的时候通过jstack来查看各个线程的调用堆栈，就可以知道没有响应的线程到底在后台做什么事情，或者等待什么资源。 如果java程序崩溃生成core文件，jstack工具可以用来获得core文件的java stack和native stack的信息，从而可以轻松地知道java程序是如何崩溃和在程序何处发生问题。另外，jstack工具还可以附属到正在运行的java程序中，看到当时运行的java程序的java stack和native stack的信息, 如果现在运行的java程序呈现hung的状态，jstack是非常有用的。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinfo(JVM Configuration info)这个命令作用是实时查看和调整虚拟机运行参数。
+之前的jps -v口令只能查看到显示指定的参数，如果想要查看未被显示指定的参数的值就要使用jinfo口令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +256,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -134,8 +286,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -154,12 +312,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{779E38D0-F1CF-4EAD-BA6D-5F75544CAB08}" name="表1" displayName="表1" ref="C5:E15" totalsRowShown="0">
-  <autoFilter ref="C5:E15" xr:uid="{9231D541-E224-4A27-91AB-4063C513DB2B}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{779E38D0-F1CF-4EAD-BA6D-5F75544CAB08}" name="表1" displayName="表1" ref="C5:G25" totalsRowShown="0">
+  <autoFilter ref="C5:G25" xr:uid="{9231D541-E224-4A27-91AB-4063C513DB2B}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FBB5B049-A0C0-45E4-9543-D5DD8315C6E9}" name="MehtodName"/>
     <tableColumn id="2" xr3:uid="{91BB24C7-C731-43A7-BA9F-48788503218F}" name="Description"/>
     <tableColumn id="3" xr3:uid="{724F1EE5-543C-4BF6-BB61-AD9AA8C85290}" name="Important"/>
+    <tableColumn id="4" xr3:uid="{0DE1C0F0-7F38-4572-95B1-DF89EC9CF433}" name="Staitic"/>
+    <tableColumn id="5" xr3:uid="{B87D4002-ECE4-459C-80F2-ACDF7BABD11A}" name="Deprecated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -428,34 +588,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="28.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="5" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="34.25" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -465,51 +637,144 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -524,12 +789,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1DB180-CF60-45B8-8615-04AE32C39729}">
-  <dimension ref="A1"/>
+  <dimension ref="A8:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="50.75" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
